--- a/biology/Botanique/Cyclanthera_brachystachya/Cyclanthera_brachystachya.xlsx
+++ b/biology/Botanique/Cyclanthera_brachystachya/Cyclanthera_brachystachya.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyclanthera brachystachya (concombre des pauvres) est une espèce de plante à fleurs de la famille des Cucurbitaceae, originaire de l'Amérique du Sud.
 C'est une plante herbacée grimpante parfois cultivée dans les régions tropicales d'Amérique latine pour ses fruits, consommés comme légumes par les populations pauvres.
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cyclanthera explodens Naudin
 Elaterium brachystachyum Ser. (basionyme)</t>
@@ -544,7 +558,9 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En espagnol : cuchinito
 </t>
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
